--- a/biology/Botanique/Typha_alekseevii/Typha_alekseevii.xlsx
+++ b/biology/Botanique/Typha_alekseevii/Typha_alekseevii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Typha alekseevii est une espèce de plante herbacée monocotylédone de la famille des Typhaceae et du genre Typha qui croît au bord des cours d'eau à débit lent et des étangs de la région du nord du Caucase. Elle a été décrite par le botaniste russe Mavrodiev en 1999[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Typha alekseevii est une espèce de plante herbacée monocotylédone de la famille des Typhaceae et du genre Typha qui croît au bord des cours d'eau à débit lent et des étangs de la région du nord du Caucase. Elle a été décrite par le botaniste russe Mavrodiev en 1999.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Typha alekseevii se trouve au Daghestan dans la zone montagneuse de la rivière Curu-Cajgu à une dizaine de kilomètres au sud du village de Soudak.
 </t>
@@ -568,7 +584,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Typha alekseevii a été décrite par Mavrodiev en 1999, d'après des spécimens collectés en 1961 par N.N. Tzvelev; S.K. Tcherepanov; G.N. Nepli et A.E. Bobrov et nommée ainsi en l'honneur du botaniste Evgueni Alexeïev (1946-1987).
 Synonyme:
